--- a/Income/ALGN_inc.xlsx
+++ b/Income/ALGN_inc.xlsx
@@ -2168,16 +2168,16 @@
         <v>0.7184</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.7152</v>
+        <v>0.7139</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.7114</v>
+        <v>0.7101</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.7235</v>
+        <v>0.7223</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.7258</v>
+        <v>0.7246</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.7224</v>
@@ -3694,16 +3694,16 @@
         <v>0.2035</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1912</v>
+        <v>0.1891</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.1745</v>
+        <v>0.1723</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.256</v>
+        <v>0.2539</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2602</v>
+        <v>0.2582</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.2556</v>
